--- a/grupos/2ASV - Estadisticos 20202.xlsx
+++ b/grupos/2ASV - Estadisticos 20202.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="113">
   <si>
     <t>Materia</t>
   </si>
@@ -161,15 +161,15 @@
     <t>Saucedo Rivalcoba Graciela</t>
   </si>
   <si>
+    <t>Rodriguez Roman Marisol</t>
+  </si>
+  <si>
+    <t>Pesce Bautista Victor Manuel</t>
+  </si>
+  <si>
     <t>Villanueva Morales Luis Arturo</t>
   </si>
   <si>
-    <t>Rodriguez Roman Marisol</t>
-  </si>
-  <si>
-    <t>Pesce Bautista Victor Manuel</t>
-  </si>
-  <si>
     <t>NC</t>
   </si>
   <si>
@@ -188,145 +188,145 @@
     <t>CHACON</t>
   </si>
   <si>
+    <t>LEON</t>
+  </si>
+  <si>
+    <t>MOLINA</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>EMMANUEL</t>
+  </si>
+  <si>
+    <t>HUMBERTO</t>
+  </si>
+  <si>
+    <t>EVAN AILTON</t>
+  </si>
+  <si>
+    <t>IRVING</t>
+  </si>
+  <si>
+    <t>APALE</t>
+  </si>
+  <si>
+    <t>AGUILAR</t>
+  </si>
+  <si>
+    <t>CANTELLAN</t>
+  </si>
+  <si>
     <t>COCOTLE</t>
   </si>
   <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>LEON</t>
-  </si>
-  <si>
-    <t>MOLINA</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>GAMEZ</t>
+  </si>
+  <si>
+    <t>LUNA</t>
+  </si>
+  <si>
+    <t>MAYA</t>
+  </si>
+  <si>
+    <t>MUÑOZ</t>
+  </si>
+  <si>
+    <t>NAJERA</t>
+  </si>
+  <si>
+    <t>OCAÑA</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>TEXCAHUA</t>
+  </si>
+  <si>
+    <t>VAZQUEZ</t>
+  </si>
+  <si>
+    <t>ESTEVEZ</t>
+  </si>
+  <si>
+    <t>HUERTA</t>
+  </si>
+  <si>
+    <t>LARA</t>
   </si>
   <si>
     <t>TLAXCALA</t>
   </si>
   <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>SILVERIO</t>
+  </si>
+  <si>
     <t>CARRILLO</t>
   </si>
   <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>EMMANUEL</t>
-  </si>
-  <si>
-    <t>HUMBERTO</t>
+    <t>MONTALVO</t>
+  </si>
+  <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
+    <t>CASTILLO</t>
+  </si>
+  <si>
+    <t>GUERRA</t>
+  </si>
+  <si>
+    <t>SOLIS</t>
+  </si>
+  <si>
+    <t>TZIZIHUA</t>
+  </si>
+  <si>
+    <t>JOSE MIGUEL</t>
+  </si>
+  <si>
+    <t>GUILLERMO SAID</t>
+  </si>
+  <si>
+    <t>DANIELA DEL CARMEN</t>
   </si>
   <si>
     <t>SURISADAY</t>
   </si>
   <si>
+    <t>MARCOS</t>
+  </si>
+  <si>
+    <t>JESUS SAMUEL</t>
+  </si>
+  <si>
+    <t>ROGELIO</t>
+  </si>
+  <si>
+    <t>ARIZBETH</t>
+  </si>
+  <si>
     <t>ANGEL DAVID</t>
-  </si>
-  <si>
-    <t>EVAN AILTON</t>
-  </si>
-  <si>
-    <t>IRVING</t>
-  </si>
-  <si>
-    <t>APALE</t>
-  </si>
-  <si>
-    <t>AGUILAR</t>
-  </si>
-  <si>
-    <t>CANTELLAN</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>GAMEZ</t>
-  </si>
-  <si>
-    <t>LUNA</t>
-  </si>
-  <si>
-    <t>MAYA</t>
-  </si>
-  <si>
-    <t>MUÑOZ</t>
-  </si>
-  <si>
-    <t>NAJERA</t>
-  </si>
-  <si>
-    <t>OCAÑA</t>
-  </si>
-  <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>TEXCAHUA</t>
-  </si>
-  <si>
-    <t>VAZQUEZ</t>
-  </si>
-  <si>
-    <t>ESTEVEZ</t>
-  </si>
-  <si>
-    <t>HUERTA</t>
-  </si>
-  <si>
-    <t>LARA</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>SILVERIO</t>
-  </si>
-  <si>
-    <t>MONTALVO</t>
-  </si>
-  <si>
-    <t>RAMIREZ</t>
-  </si>
-  <si>
-    <t>CASTILLO</t>
-  </si>
-  <si>
-    <t>GUERRA</t>
-  </si>
-  <si>
-    <t>SOLIS</t>
-  </si>
-  <si>
-    <t>TZIZIHUA</t>
-  </si>
-  <si>
-    <t>JOSE MIGUEL</t>
-  </si>
-  <si>
-    <t>GUILLERMO SAID</t>
-  </si>
-  <si>
-    <t>DANIELA DEL CARMEN</t>
-  </si>
-  <si>
-    <t>MARCOS</t>
-  </si>
-  <si>
-    <t>JESUS SAMUEL</t>
-  </si>
-  <si>
-    <t>ROGELIO</t>
-  </si>
-  <si>
-    <t>ARIZBETH</t>
   </si>
   <si>
     <t>JESUS ANTONIO</t>
@@ -887,7 +887,7 @@
         <v>10</v>
       </c>
       <c r="P4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Q4">
         <v>9</v>
@@ -964,7 +964,7 @@
         <v>6</v>
       </c>
       <c r="P5">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Q5">
         <v>8</v>
@@ -1041,7 +1041,7 @@
         <v>8</v>
       </c>
       <c r="P6">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Q6">
         <v>9</v>
@@ -1082,7 +1082,7 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -1100,7 +1100,7 @@
         <v>-1</v>
       </c>
       <c r="J7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K7">
         <v>5</v>
@@ -1118,7 +1118,7 @@
         <v>-1</v>
       </c>
       <c r="P7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -1136,7 +1136,7 @@
         <v>5</v>
       </c>
       <c r="V7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="W7">
         <v>5</v>
@@ -1159,7 +1159,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -1177,7 +1177,7 @@
         <v>5</v>
       </c>
       <c r="J8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K8">
         <v>8</v>
@@ -1195,7 +1195,7 @@
         <v>9</v>
       </c>
       <c r="P8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q8">
         <v>9</v>
@@ -1213,7 +1213,7 @@
         <v>6</v>
       </c>
       <c r="V8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W8">
         <v>8</v>
@@ -1272,7 +1272,7 @@
         <v>10</v>
       </c>
       <c r="P9">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Q9">
         <v>10</v>
@@ -1349,7 +1349,7 @@
         <v>8</v>
       </c>
       <c r="P10">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Q10">
         <v>10</v>
@@ -1426,7 +1426,7 @@
         <v>8</v>
       </c>
       <c r="P11">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Q11">
         <v>10</v>
@@ -1503,7 +1503,7 @@
         <v>8</v>
       </c>
       <c r="P12">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Q12">
         <v>9</v>
@@ -1544,7 +1544,7 @@
         <v>6</v>
       </c>
       <c r="D13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E13">
         <v>9</v>
@@ -1562,7 +1562,7 @@
         <v>6</v>
       </c>
       <c r="J13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K13">
         <v>10</v>
@@ -1580,7 +1580,7 @@
         <v>6</v>
       </c>
       <c r="P13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q13">
         <v>10</v>
@@ -1598,7 +1598,7 @@
         <v>6</v>
       </c>
       <c r="V13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W13">
         <v>10</v>
@@ -1657,7 +1657,7 @@
         <v>-1</v>
       </c>
       <c r="P14">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Q14">
         <v>9</v>
@@ -1698,7 +1698,7 @@
         <v>5</v>
       </c>
       <c r="D15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E15">
         <v>5</v>
@@ -1716,7 +1716,7 @@
         <v>-1</v>
       </c>
       <c r="J15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K15">
         <v>5</v>
@@ -1734,7 +1734,7 @@
         <v>-1</v>
       </c>
       <c r="P15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -1752,7 +1752,7 @@
         <v>5</v>
       </c>
       <c r="V15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="W15">
         <v>5</v>
@@ -1811,7 +1811,7 @@
         <v>8</v>
       </c>
       <c r="P16">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Q16">
         <v>10</v>
@@ -1888,7 +1888,7 @@
         <v>7</v>
       </c>
       <c r="P17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Q17">
         <v>10</v>
@@ -1965,7 +1965,7 @@
         <v>-1</v>
       </c>
       <c r="P18">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Q18">
         <v>9</v>
@@ -2042,7 +2042,7 @@
         <v>5</v>
       </c>
       <c r="P19">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Q19">
         <v>10</v>
@@ -2119,7 +2119,7 @@
         <v>10</v>
       </c>
       <c r="P20">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Q20">
         <v>9</v>
@@ -2196,7 +2196,7 @@
         <v>9</v>
       </c>
       <c r="P21">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Q21">
         <v>9</v>
@@ -2273,7 +2273,7 @@
         <v>10</v>
       </c>
       <c r="P22">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="Q22">
         <v>9</v>
@@ -2350,7 +2350,7 @@
         <v>8</v>
       </c>
       <c r="P23">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="Q23">
         <v>10</v>
@@ -2427,7 +2427,7 @@
         <v>9</v>
       </c>
       <c r="P24">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Q24">
         <v>9</v>
@@ -2504,7 +2504,7 @@
         <v>7</v>
       </c>
       <c r="P25">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Q25">
         <v>10</v>
@@ -2581,7 +2581,7 @@
         <v>8</v>
       </c>
       <c r="P26">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Q26">
         <v>10</v>
@@ -2763,7 +2763,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>47</v>
@@ -2772,30 +2772,30 @@
         <v>23</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>86.95999999999999</v>
+      </c>
+      <c r="G5">
+        <v>13.04</v>
+      </c>
+      <c r="H5">
+        <v>6.7</v>
+      </c>
+      <c r="I5">
         <v>0</v>
       </c>
-      <c r="F5">
-        <v>82.61</v>
-      </c>
-      <c r="G5">
+      <c r="J5">
         <v>0</v>
-      </c>
-      <c r="H5">
-        <v>6.8</v>
-      </c>
-      <c r="I5">
-        <v>4</v>
-      </c>
-      <c r="J5">
-        <v>17.39</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>48</v>
@@ -2804,19 +2804,19 @@
         <v>23</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>86.95999999999999</v>
+        <v>91.3</v>
       </c>
       <c r="G6">
-        <v>13.04</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H6">
-        <v>6.7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -2827,7 +2827,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>49</v>
@@ -2848,7 +2848,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="H7">
-        <v>8.800000000000001</v>
+        <v>6.6</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2864,7 +2864,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2902,10 +2902,10 @@
         <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -2922,30 +2922,30 @@
         <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>20330051920319</v>
+        <v>20330051920395</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -2956,101 +2956,21 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>20330051920321</v>
+        <v>20330051920328</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
         <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>20330051920325</v>
-      </c>
-      <c r="B6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>20330051920395</v>
-      </c>
-      <c r="B7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>20330051920395</v>
-      </c>
-      <c r="B8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>20330051920328</v>
-      </c>
-      <c r="B9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3090,50 +3010,50 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>20330051920319</v>
+        <v>20330051920397</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>20330051920395</v>
+        <v>20330051920319</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" t="s">
         <v>63</v>
       </c>
-      <c r="D3" t="s">
-        <v>69</v>
-      </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>20330051920397</v>
+        <v>20330051920395</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
         <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -3141,16 +3061,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>20330051920321</v>
+        <v>20330051920328</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
         <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -3158,47 +3078,47 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>20330051920325</v>
+        <v>20330051920317</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>20330051920328</v>
+        <v>20330051920318</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="D7" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>20330051920317</v>
+        <v>20330051920320</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D8" t="s">
         <v>96</v>
@@ -3209,13 +3129,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>20330051920318</v>
+        <v>20330051920321</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D9" t="s">
         <v>97</v>
@@ -3226,13 +3146,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>20330051920320</v>
+        <v>20330051920322</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D10" t="s">
         <v>98</v>
@@ -3243,13 +3163,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>20330051920322</v>
+        <v>20330051920323</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s">
         <v>99</v>
@@ -3260,13 +3180,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>20330051920323</v>
+        <v>20330051920380</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="D12" t="s">
         <v>100</v>
@@ -3277,13 +3197,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>20330051920380</v>
+        <v>20330051920324</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="D13" t="s">
         <v>101</v>
@@ -3294,13 +3214,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>20330051920324</v>
+        <v>20330051920325</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="D14" t="s">
         <v>102</v>
@@ -3314,10 +3234,10 @@
         <v>20330051920326</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D15" t="s">
         <v>103</v>
@@ -3331,10 +3251,10 @@
         <v>20330051920327</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D16" t="s">
         <v>104</v>
@@ -3348,10 +3268,10 @@
         <v>20330051920396</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D17" t="s">
         <v>105</v>
@@ -3365,10 +3285,10 @@
         <v>20330051920329</v>
       </c>
       <c r="B18" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D18" t="s">
         <v>106</v>
@@ -3382,10 +3302,10 @@
         <v>20330051920330</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D19" t="s">
         <v>107</v>
@@ -3399,10 +3319,10 @@
         <v>20330051920331</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D20" t="s">
         <v>108</v>
@@ -3416,10 +3336,10 @@
         <v>20330051920332</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D21" t="s">
         <v>109</v>
@@ -3433,10 +3353,10 @@
         <v>20330051920333</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D22" t="s">
         <v>110</v>
@@ -3450,10 +3370,10 @@
         <v>20330051920334</v>
       </c>
       <c r="B23" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="D23" t="s">
         <v>111</v>
@@ -3467,10 +3387,10 @@
         <v>20330051920335</v>
       </c>
       <c r="B24" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C24" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D24" t="s">
         <v>112</v>
@@ -3486,7 +3406,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3524,13 +3444,13 @@
         <v>20330051920317</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -3547,13 +3467,13 @@
         <v>20330051920317</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -3567,39 +3487,39 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>20330051920325</v>
+        <v>20330051920326</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G4">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>20330051920325</v>
+        <v>20330051920326</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -3613,16 +3533,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>20330051920326</v>
+        <v>20330051920328</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
@@ -3631,21 +3551,21 @@
         <v>44</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>20330051920326</v>
+        <v>20330051920328</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -3659,16 +3579,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>20330051920328</v>
+        <v>20330051920330</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="D8" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -3677,21 +3597,21 @@
         <v>44</v>
       </c>
       <c r="G8">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>20330051920328</v>
+        <v>20330051920330</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="D9" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -3705,16 +3625,16 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>20330051920330</v>
+        <v>20330051920332</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
         <v>91</v>
       </c>
       <c r="D10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
@@ -3728,22 +3648,22 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>20330051920330</v>
+        <v>20330051920332</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
         <v>91</v>
       </c>
       <c r="D11" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -3751,16 +3671,16 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>20330051920332</v>
+        <v>20330051920320</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D12" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
@@ -3774,45 +3694,45 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>20330051920332</v>
+        <v>20330051920322</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D13" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G13">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>20330051920320</v>
+        <v>20330051920323</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C14" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E14" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G14">
         <v>5</v>
@@ -3820,45 +3740,45 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>20330051920322</v>
+        <v>20330051920324</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="D15" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E15" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G15">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>20330051920323</v>
+        <v>20330051920325</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="D16" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G16">
         <v>5</v>
@@ -3866,47 +3786,24 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>20330051920324</v>
+        <v>20330051920335</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="D17" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
-        <v>20330051920335</v>
-      </c>
-      <c r="B18" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18" t="s">
-        <v>95</v>
-      </c>
-      <c r="D18" t="s">
-        <v>112</v>
-      </c>
-      <c r="E18" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" t="s">
-        <v>44</v>
-      </c>
-      <c r="G18">
         <v>5</v>
       </c>
     </row>

--- a/grupos/2ASV - Estadisticos 20202.xlsx
+++ b/grupos/2ASV - Estadisticos 20202.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="113">
   <si>
     <t>Materia</t>
   </si>
@@ -182,157 +182,157 @@
     <t>Nombres</t>
   </si>
   <si>
+    <t>APALE</t>
+  </si>
+  <si>
     <t>IBAÑEZ</t>
   </si>
   <si>
+    <t>AGUILAR</t>
+  </si>
+  <si>
     <t>CHACON</t>
   </si>
   <si>
+    <t>CANTELLAN</t>
+  </si>
+  <si>
+    <t>COCOTLE</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>GAMEZ</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
     <t>LEON</t>
   </si>
   <si>
+    <t>LUNA</t>
+  </si>
+  <si>
+    <t>MAYA</t>
+  </si>
+  <si>
     <t>MOLINA</t>
   </si>
   <si>
+    <t>MUÑOZ</t>
+  </si>
+  <si>
+    <t>NAJERA</t>
+  </si>
+  <si>
+    <t>OCAÑA</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
     <t>RODRIGUEZ</t>
   </si>
   <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>TEXCAHUA</t>
+  </si>
+  <si>
+    <t>VAZQUEZ</t>
+  </si>
+  <si>
+    <t>ESTEVEZ</t>
+  </si>
+  <si>
+    <t>HUERTA</t>
+  </si>
+  <si>
+    <t>LARA</t>
+  </si>
+  <si>
+    <t>TLAXCALA</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>SILVERIO</t>
+  </si>
+  <si>
+    <t>CARRILLO</t>
   </si>
   <si>
     <t>MORALES</t>
   </si>
   <si>
+    <t>MONTALVO</t>
+  </si>
+  <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
+    <t>CASTILLO</t>
+  </si>
+  <si>
+    <t>GUERRA</t>
+  </si>
+  <si>
+    <t>SOLIS</t>
+  </si>
+  <si>
+    <t>TZIZIHUA</t>
+  </si>
+  <si>
+    <t>JOSE MIGUEL</t>
+  </si>
+  <si>
     <t>EMMANUEL</t>
   </si>
   <si>
+    <t>GUILLERMO SAID</t>
+  </si>
+  <si>
     <t>HUMBERTO</t>
   </si>
   <si>
+    <t>DANIELA DEL CARMEN</t>
+  </si>
+  <si>
+    <t>SURISADAY</t>
+  </si>
+  <si>
+    <t>MARCOS</t>
+  </si>
+  <si>
+    <t>JESUS SAMUEL</t>
+  </si>
+  <si>
+    <t>ROGELIO</t>
+  </si>
+  <si>
+    <t>ARIZBETH</t>
+  </si>
+  <si>
+    <t>ANGEL DAVID</t>
+  </si>
+  <si>
     <t>EVAN AILTON</t>
   </si>
   <si>
+    <t>JESUS ANTONIO</t>
+  </si>
+  <si>
+    <t>FRANCISCO YAEL</t>
+  </si>
+  <si>
     <t>IRVING</t>
-  </si>
-  <si>
-    <t>APALE</t>
-  </si>
-  <si>
-    <t>AGUILAR</t>
-  </si>
-  <si>
-    <t>CANTELLAN</t>
-  </si>
-  <si>
-    <t>COCOTLE</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>GAMEZ</t>
-  </si>
-  <si>
-    <t>LUNA</t>
-  </si>
-  <si>
-    <t>MAYA</t>
-  </si>
-  <si>
-    <t>MUÑOZ</t>
-  </si>
-  <si>
-    <t>NAJERA</t>
-  </si>
-  <si>
-    <t>OCAÑA</t>
-  </si>
-  <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>TEXCAHUA</t>
-  </si>
-  <si>
-    <t>VAZQUEZ</t>
-  </si>
-  <si>
-    <t>ESTEVEZ</t>
-  </si>
-  <si>
-    <t>HUERTA</t>
-  </si>
-  <si>
-    <t>LARA</t>
-  </si>
-  <si>
-    <t>TLAXCALA</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>SILVERIO</t>
-  </si>
-  <si>
-    <t>CARRILLO</t>
-  </si>
-  <si>
-    <t>MONTALVO</t>
-  </si>
-  <si>
-    <t>RAMIREZ</t>
-  </si>
-  <si>
-    <t>CASTILLO</t>
-  </si>
-  <si>
-    <t>GUERRA</t>
-  </si>
-  <si>
-    <t>SOLIS</t>
-  </si>
-  <si>
-    <t>TZIZIHUA</t>
-  </si>
-  <si>
-    <t>JOSE MIGUEL</t>
-  </si>
-  <si>
-    <t>GUILLERMO SAID</t>
-  </si>
-  <si>
-    <t>DANIELA DEL CARMEN</t>
-  </si>
-  <si>
-    <t>SURISADAY</t>
-  </si>
-  <si>
-    <t>MARCOS</t>
-  </si>
-  <si>
-    <t>JESUS SAMUEL</t>
-  </si>
-  <si>
-    <t>ROGELIO</t>
-  </si>
-  <si>
-    <t>ARIZBETH</t>
-  </si>
-  <si>
-    <t>ANGEL DAVID</t>
-  </si>
-  <si>
-    <t>JESUS ANTONIO</t>
-  </si>
-  <si>
-    <t>FRANCISCO YAEL</t>
   </si>
   <si>
     <t>VICTOR HUGO</t>
@@ -1097,7 +1097,7 @@
         <v>5</v>
       </c>
       <c r="I7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J7">
         <v>5</v>
@@ -1115,7 +1115,7 @@
         <v>5</v>
       </c>
       <c r="O7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P7">
         <v>5</v>
@@ -1636,7 +1636,7 @@
         <v>6</v>
       </c>
       <c r="I14">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J14">
         <v>6</v>
@@ -1654,7 +1654,7 @@
         <v>6</v>
       </c>
       <c r="O14">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P14">
         <v>7</v>
@@ -1672,7 +1672,7 @@
         <v>6</v>
       </c>
       <c r="U14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V14">
         <v>6</v>
@@ -1713,7 +1713,7 @@
         <v>5</v>
       </c>
       <c r="I15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -1731,7 +1731,7 @@
         <v>5</v>
       </c>
       <c r="O15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P15">
         <v>5</v>
@@ -1944,7 +1944,7 @@
         <v>5</v>
       </c>
       <c r="I18">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J18">
         <v>6</v>
@@ -1962,7 +1962,7 @@
         <v>6</v>
       </c>
       <c r="O18">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P18">
         <v>7</v>
@@ -2688,13 +2688,13 @@
         <v>43.48</v>
       </c>
       <c r="H2">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="I2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>17.39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2864,7 +2864,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2892,86 +2892,6 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>20330051920397</v>
-      </c>
-      <c r="B2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>20330051920319</v>
-      </c>
-      <c r="B3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>20330051920395</v>
-      </c>
-      <c r="B4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>20330051920328</v>
-      </c>
-      <c r="B5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -3010,81 +2930,81 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>20330051920397</v>
+        <v>20330051920317</v>
       </c>
       <c r="B2" t="s">
         <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>20330051920319</v>
+        <v>20330051920397</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>20330051920395</v>
+        <v>20330051920318</v>
       </c>
       <c r="B4" t="s">
         <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>20330051920328</v>
+        <v>20330051920319</v>
       </c>
       <c r="B5" t="s">
         <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>20330051920317</v>
+        <v>20330051920320</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D6" t="s">
         <v>94</v>
@@ -3095,13 +3015,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>20330051920318</v>
+        <v>20330051920321</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D7" t="s">
         <v>95</v>
@@ -3112,13 +3032,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>20330051920320</v>
+        <v>20330051920322</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D8" t="s">
         <v>96</v>
@@ -3129,13 +3049,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>20330051920321</v>
+        <v>20330051920323</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="D9" t="s">
         <v>97</v>
@@ -3146,13 +3066,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>20330051920322</v>
+        <v>20330051920380</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D10" t="s">
         <v>98</v>
@@ -3163,13 +3083,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>20330051920323</v>
+        <v>20330051920324</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D11" t="s">
         <v>99</v>
@@ -3180,13 +3100,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>20330051920380</v>
+        <v>20330051920325</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D12" t="s">
         <v>100</v>
@@ -3197,13 +3117,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>20330051920324</v>
+        <v>20330051920395</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D13" t="s">
         <v>101</v>
@@ -3214,13 +3134,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>20330051920325</v>
+        <v>20330051920326</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D14" t="s">
         <v>102</v>
@@ -3231,13 +3151,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>20330051920326</v>
+        <v>20330051920327</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D15" t="s">
         <v>103</v>
@@ -3248,13 +3168,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>20330051920327</v>
+        <v>20330051920328</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="D16" t="s">
         <v>104</v>
@@ -3268,10 +3188,10 @@
         <v>20330051920396</v>
       </c>
       <c r="B17" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="D17" t="s">
         <v>105</v>
@@ -3285,10 +3205,10 @@
         <v>20330051920329</v>
       </c>
       <c r="B18" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C18" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D18" t="s">
         <v>106</v>
@@ -3302,10 +3222,10 @@
         <v>20330051920330</v>
       </c>
       <c r="B19" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C19" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D19" t="s">
         <v>107</v>
@@ -3319,10 +3239,10 @@
         <v>20330051920331</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C20" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D20" t="s">
         <v>108</v>
@@ -3336,10 +3256,10 @@
         <v>20330051920332</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="C21" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D21" t="s">
         <v>109</v>
@@ -3353,10 +3273,10 @@
         <v>20330051920333</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C22" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D22" t="s">
         <v>110</v>
@@ -3370,10 +3290,10 @@
         <v>20330051920334</v>
       </c>
       <c r="B23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" t="s">
         <v>79</v>
-      </c>
-      <c r="C23" t="s">
-        <v>84</v>
       </c>
       <c r="D23" t="s">
         <v>111</v>
@@ -3387,10 +3307,10 @@
         <v>20330051920335</v>
       </c>
       <c r="B24" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C24" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D24" t="s">
         <v>112</v>
@@ -3444,13 +3364,13 @@
         <v>20330051920317</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -3467,13 +3387,13 @@
         <v>20330051920317</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -3490,13 +3410,13 @@
         <v>20330051920326</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="D4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -3513,13 +3433,13 @@
         <v>20330051920326</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="D5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -3536,13 +3456,13 @@
         <v>20330051920328</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
@@ -3551,7 +3471,7 @@
         <v>44</v>
       </c>
       <c r="G6">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3559,13 +3479,13 @@
         <v>20330051920328</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -3582,10 +3502,10 @@
         <v>20330051920330</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D8" t="s">
         <v>107</v>
@@ -3605,10 +3525,10 @@
         <v>20330051920330</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D9" t="s">
         <v>107</v>
@@ -3628,10 +3548,10 @@
         <v>20330051920332</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D10" t="s">
         <v>109</v>
@@ -3651,10 +3571,10 @@
         <v>20330051920332</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D11" t="s">
         <v>109</v>
@@ -3674,13 +3594,13 @@
         <v>20330051920320</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
@@ -3697,13 +3617,13 @@
         <v>20330051920322</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E13" t="s">
         <v>5</v>
@@ -3720,13 +3640,13 @@
         <v>20330051920323</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
@@ -3743,13 +3663,13 @@
         <v>20330051920324</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
@@ -3766,13 +3686,13 @@
         <v>20330051920325</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
@@ -3789,10 +3709,10 @@
         <v>20330051920335</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C17" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D17" t="s">
         <v>112</v>

--- a/grupos/2ASV - Estadisticos 20202.xlsx
+++ b/grupos/2ASV - Estadisticos 20202.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="113">
   <si>
     <t>Materia</t>
   </si>
@@ -161,10 +161,10 @@
     <t>Saucedo Rivalcoba Graciela</t>
   </si>
   <si>
+    <t>Pesce Bautista Victor Manuel</t>
+  </si>
+  <si>
     <t>Rodriguez Roman Marisol</t>
-  </si>
-  <si>
-    <t>Pesce Bautista Victor Manuel</t>
   </si>
   <si>
     <t>Villanueva Morales Luis Arturo</t>
@@ -2676,19 +2676,19 @@
         <v>23</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>56.52</v>
+        <v>82.61</v>
       </c>
       <c r="G2">
-        <v>43.48</v>
+        <v>17.39</v>
       </c>
       <c r="H2">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -2708,19 +2708,19 @@
         <v>23</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>56.52</v>
+        <v>82.61</v>
       </c>
       <c r="G3">
-        <v>43.48</v>
+        <v>17.39</v>
       </c>
       <c r="H3">
-        <v>5.8</v>
+        <v>6.6</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -2740,19 +2740,19 @@
         <v>23</v>
       </c>
       <c r="D4">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>69.56999999999999</v>
+        <v>91.3</v>
       </c>
       <c r="G4">
-        <v>30.43</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H4">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -2763,7 +2763,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>47</v>
@@ -2772,19 +2772,19 @@
         <v>23</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>86.95999999999999</v>
+        <v>91.3</v>
       </c>
       <c r="G5">
-        <v>13.04</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H5">
-        <v>6.7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -2795,7 +2795,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>48</v>
@@ -2816,7 +2816,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="H6">
-        <v>8.800000000000001</v>
+        <v>6.7</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="H7">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -3326,7 +3326,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3356,27 +3356,27 @@
         <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>20330051920317</v>
+        <v>20330051920328</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -3384,16 +3384,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>20330051920317</v>
+        <v>20330051920328</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D3" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -3407,323 +3407,47 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>20330051920326</v>
+        <v>20330051920317</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>20330051920326</v>
+        <v>20330051920397</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="D5" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>20330051920328</v>
-      </c>
-      <c r="B6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>20330051920328</v>
-      </c>
-      <c r="B7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>20330051920330</v>
-      </c>
-      <c r="B8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D8" t="s">
-        <v>107</v>
-      </c>
-      <c r="E8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>20330051920330</v>
-      </c>
-      <c r="B9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" t="s">
-        <v>107</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>20330051920332</v>
-      </c>
-      <c r="B10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" t="s">
-        <v>109</v>
-      </c>
-      <c r="E10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>20330051920332</v>
-      </c>
-      <c r="B11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11" t="s">
-        <v>109</v>
-      </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>20330051920320</v>
-      </c>
-      <c r="B12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" t="s">
-        <v>94</v>
-      </c>
-      <c r="E12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>20330051920322</v>
-      </c>
-      <c r="B13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" t="s">
-        <v>80</v>
-      </c>
-      <c r="D13" t="s">
-        <v>96</v>
-      </c>
-      <c r="E13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>20330051920323</v>
-      </c>
-      <c r="B14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" t="s">
-        <v>97</v>
-      </c>
-      <c r="E14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>20330051920324</v>
-      </c>
-      <c r="B15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" t="s">
-        <v>99</v>
-      </c>
-      <c r="E15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>20330051920325</v>
-      </c>
-      <c r="B16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" t="s">
-        <v>82</v>
-      </c>
-      <c r="D16" t="s">
-        <v>100</v>
-      </c>
-      <c r="E16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>20330051920335</v>
-      </c>
-      <c r="B17" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" t="s">
-        <v>89</v>
-      </c>
-      <c r="D17" t="s">
-        <v>112</v>
-      </c>
-      <c r="E17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17">
         <v>5</v>
       </c>
     </row>
